--- a/38_Tables_2/homework/18_2.xlsx
+++ b/38_Tables_2/homework/18_2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grigo\OneDrive\Рабочий стол\Обработка электронных таблиц III\Задание 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\38_Tables_2\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10CD0BD-9188-45C2-AB64-A32D01734480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8796"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,16 +23,61 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Действия</t>
+  </si>
+  <si>
+    <t>Влево</t>
+  </si>
+  <si>
+    <t>Вверх</t>
+  </si>
+  <si>
+    <t>Из правой нижней в Левую верхнюю</t>
+  </si>
+  <si>
+    <t>сначала минимальную сумму, затем максимальную.</t>
+  </si>
+  <si>
+    <t>Мин</t>
+  </si>
+  <si>
+    <t>Макс</t>
+  </si>
+  <si>
+    <t>535?</t>
+  </si>
+  <si>
+    <t>Из левой верхней в правую нижнюю</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -152,6 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -431,16 +478,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>13</v>
       </c>
@@ -480,7 +527,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>25</v>
       </c>
@@ -519,7 +566,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>83</v>
       </c>
@@ -558,7 +605,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>65</v>
       </c>
@@ -597,7 +644,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>93</v>
       </c>
@@ -636,7 +683,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -675,7 +722,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>28</v>
       </c>
@@ -714,7 +761,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>89</v>
       </c>
@@ -753,7 +800,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>30</v>
       </c>
@@ -792,7 +839,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>67</v>
       </c>
@@ -822,6 +869,465 @@
       </c>
       <c r="J10" s="10">
         <v>81</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f>MAX(A13,B12)+A1</f>
+        <v>1271</v>
+      </c>
+      <c r="B12" s="2">
+        <f>MAX(B13,C12)+B1</f>
+        <v>1231</v>
+      </c>
+      <c r="C12" s="2">
+        <f>MAX(C13,D12)+C1</f>
+        <v>1178</v>
+      </c>
+      <c r="D12" s="2">
+        <f>MAX(D13,E12)+D1</f>
+        <v>1023</v>
+      </c>
+      <c r="E12" s="2">
+        <f>MAX(E13,F12)+E1</f>
+        <v>982</v>
+      </c>
+      <c r="F12" s="2">
+        <f>MAX(F13,G12)+F1</f>
+        <v>802</v>
+      </c>
+      <c r="G12" s="2">
+        <f>MAX(G13,H12)+G1</f>
+        <v>800</v>
+      </c>
+      <c r="H12" s="2">
+        <f>MAX(H13,I12)+H1</f>
+        <v>723</v>
+      </c>
+      <c r="I12" s="2">
+        <f>MAX(I13,J12)+I1</f>
+        <v>705</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" ref="J12:J19" si="0">J13+J1</f>
+        <v>548</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f>MAX(A14,B13)+A2</f>
+        <v>1258</v>
+      </c>
+      <c r="B13" s="2">
+        <f>MAX(B14,C13)+B2</f>
+        <v>1165</v>
+      </c>
+      <c r="C13" s="2">
+        <f>MAX(C14,D13)+C2</f>
+        <v>1132</v>
+      </c>
+      <c r="D13" s="2">
+        <f>MAX(D14,E13)+D2</f>
+        <v>961</v>
+      </c>
+      <c r="E13" s="2">
+        <f>MAX(E14,F13)+E2</f>
+        <v>941</v>
+      </c>
+      <c r="F13" s="2">
+        <f>MAX(F14,G13)+F2</f>
+        <v>795</v>
+      </c>
+      <c r="G13" s="2">
+        <f>MAX(G14,H13)+G2</f>
+        <v>760</v>
+      </c>
+      <c r="H13" s="2">
+        <f>MAX(H14,I13)+H2</f>
+        <v>716</v>
+      </c>
+      <c r="I13" s="2">
+        <f>MAX(I14,J13)+I2</f>
+        <v>609</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>MAX(A15,B14)+A3</f>
+        <v>1233</v>
+      </c>
+      <c r="B14" s="2">
+        <f>MAX(B15,C14)+B3</f>
+        <v>1108</v>
+      </c>
+      <c r="C14" s="2">
+        <f>MAX(C15,D14)+C3</f>
+        <v>1092</v>
+      </c>
+      <c r="D14" s="2">
+        <f>MAX(D15,E14)+D3</f>
+        <v>903</v>
+      </c>
+      <c r="E14" s="2">
+        <f>MAX(E15,F14)+E3</f>
+        <v>896</v>
+      </c>
+      <c r="F14" s="2">
+        <f>MAX(F15,G14)+F3</f>
+        <v>697</v>
+      </c>
+      <c r="G14" s="2">
+        <f>MAX(G15,H14)+G3</f>
+        <v>650</v>
+      </c>
+      <c r="H14" s="2">
+        <f>MAX(H15,I14)+H3</f>
+        <v>624</v>
+      </c>
+      <c r="I14" s="2">
+        <f>MAX(I15,J14)+I3</f>
+        <v>592</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="0"/>
+        <v>445</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f>MAX(A16,B15)+A4</f>
+        <v>1150</v>
+      </c>
+      <c r="B15" s="2">
+        <f>MAX(B16,C15)+B4</f>
+        <v>1018</v>
+      </c>
+      <c r="C15" s="2">
+        <f>MAX(C16,D15)+C4</f>
+        <v>1008</v>
+      </c>
+      <c r="D15" s="2">
+        <f>MAX(D16,E15)+D4</f>
+        <v>886</v>
+      </c>
+      <c r="E15" s="2">
+        <f>MAX(E16,F15)+E4</f>
+        <v>864</v>
+      </c>
+      <c r="F15" s="2">
+        <f>MAX(F16,G15)+F4</f>
+        <v>692</v>
+      </c>
+      <c r="G15" s="2">
+        <f>MAX(G16,H15)+G4</f>
+        <v>571</v>
+      </c>
+      <c r="H15" s="2">
+        <f>MAX(H16,I15)+H4</f>
+        <v>531</v>
+      </c>
+      <c r="I15" s="2">
+        <f>MAX(I16,J15)+I4</f>
+        <v>508</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>MAX(A17,B16)+A5</f>
+        <v>1085</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MAX(B17,C16)+B5</f>
+        <v>992</v>
+      </c>
+      <c r="C16" s="2">
+        <f>MAX(C17,D16)+C5</f>
+        <v>943</v>
+      </c>
+      <c r="D16" s="2">
+        <f>MAX(D17,E16)+D5</f>
+        <v>877</v>
+      </c>
+      <c r="E16" s="2">
+        <f>MAX(E17,F16)+E5</f>
+        <v>793</v>
+      </c>
+      <c r="F16" s="2">
+        <f>MAX(F17,G16)+F5</f>
+        <v>607</v>
+      </c>
+      <c r="G16" s="2">
+        <f>MAX(G17,H16)+G5</f>
+        <v>505</v>
+      </c>
+      <c r="H16" s="2">
+        <f>MAX(H17,I16)+H5</f>
+        <v>447</v>
+      </c>
+      <c r="I16" s="2">
+        <f>MAX(I17,J16)+I5</f>
+        <v>386</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="M16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>MAX(A18,B17)+A6</f>
+        <v>870</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(B18,C17)+B6</f>
+        <v>830</v>
+      </c>
+      <c r="C17" s="2">
+        <f>MAX(C18,D17)+C6</f>
+        <v>783</v>
+      </c>
+      <c r="D17" s="2">
+        <f>MAX(D18,E17)+D6</f>
+        <v>752</v>
+      </c>
+      <c r="E17" s="2">
+        <f>MAX(E18,F17)+E6</f>
+        <v>696</v>
+      </c>
+      <c r="F17" s="2">
+        <f>MAX(F18,G17)+F6</f>
+        <v>534</v>
+      </c>
+      <c r="G17" s="2">
+        <f>MAX(G18,H17)+G6</f>
+        <v>495</v>
+      </c>
+      <c r="H17" s="2">
+        <f>MAX(H18,I17)+H6</f>
+        <v>412</v>
+      </c>
+      <c r="I17" s="2">
+        <f>MAX(I18,J17)+I6</f>
+        <v>361</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>MAX(A19,B18)+A7</f>
+        <v>869</v>
+      </c>
+      <c r="B18" s="2">
+        <f>MAX(B19,C18)+B7</f>
+        <v>774</v>
+      </c>
+      <c r="C18" s="2">
+        <f>MAX(C19,D18)+C7</f>
+        <v>751</v>
+      </c>
+      <c r="D18" s="2">
+        <f>MAX(D19,E18)+D7</f>
+        <v>681</v>
+      </c>
+      <c r="E18" s="2">
+        <f>MAX(E19,F18)+E7</f>
+        <v>624</v>
+      </c>
+      <c r="F18" s="2">
+        <f>MAX(F19,G18)+F7</f>
+        <v>434</v>
+      </c>
+      <c r="G18" s="2">
+        <f>MAX(G19,H18)+G7</f>
+        <v>431</v>
+      </c>
+      <c r="H18" s="2">
+        <f>MAX(H19,I18)+H7</f>
+        <v>340</v>
+      </c>
+      <c r="I18" s="2">
+        <f>MAX(I19,J18)+I7</f>
+        <v>320</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>MAX(A20,B19)+A8</f>
+        <v>841</v>
+      </c>
+      <c r="B19" s="2">
+        <f>MAX(B20,C19)+B8</f>
+        <v>752</v>
+      </c>
+      <c r="C19" s="2">
+        <f>MAX(C20,D19)+C8</f>
+        <v>670</v>
+      </c>
+      <c r="D19" s="2">
+        <f>MAX(D20,E19)+D8</f>
+        <v>631</v>
+      </c>
+      <c r="E19" s="2">
+        <f>MAX(E20,F19)+E8</f>
+        <v>570</v>
+      </c>
+      <c r="F19" s="2">
+        <f>MAX(F20,G19)+F8</f>
+        <v>407</v>
+      </c>
+      <c r="G19" s="2">
+        <f>MAX(G20,H19)+G8</f>
+        <v>389</v>
+      </c>
+      <c r="H19" s="2">
+        <f>MAX(H20,I19)+H8</f>
+        <v>303</v>
+      </c>
+      <c r="I19" s="2">
+        <f>MAX(I20,J19)+I8</f>
+        <v>222</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="M19">
+        <v>535</v>
+      </c>
+      <c r="O19">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f>MAX(A21,B20)+A9</f>
+        <v>639</v>
+      </c>
+      <c r="B20" s="2">
+        <f>MAX(B21,C20)+B9</f>
+        <v>609</v>
+      </c>
+      <c r="C20" s="2">
+        <f>MAX(C21,D20)+C9</f>
+        <v>571</v>
+      </c>
+      <c r="D20" s="2">
+        <f>MAX(D21,E20)+D9</f>
+        <v>529</v>
+      </c>
+      <c r="E20" s="2">
+        <f>MAX(E21,F20)+E9</f>
+        <v>500</v>
+      </c>
+      <c r="F20" s="2">
+        <f>MAX(F21,G20)+F9</f>
+        <v>400</v>
+      </c>
+      <c r="G20" s="2">
+        <f>MAX(G21,H20)+G9</f>
+        <v>310</v>
+      </c>
+      <c r="H20" s="2">
+        <f>MAX(H21,I20)+H9</f>
+        <v>255</v>
+      </c>
+      <c r="I20" s="2">
+        <f>MAX(I21,J20)+I9</f>
+        <v>191</v>
+      </c>
+      <c r="J20" s="7">
+        <f>J21+J9</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <f t="shared" ref="A21:H21" si="1">B21+A10</f>
+        <v>499</v>
+      </c>
+      <c r="B21" s="9">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="1"/>
+        <v>429</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="1"/>
+        <v>357</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="I21" s="9">
+        <f>J21+I10</f>
+        <v>100</v>
+      </c>
+      <c r="J21" s="10">
+        <f>J10</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
